--- a/requisitos.xlsx
+++ b/requisitos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="973" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId2"/>
@@ -121,13 +121,36 @@
     <t xml:space="preserve">xcvxcv</t>
   </si>
   <si>
-    <t xml:space="preserve">sdkfjklsdfjldksf
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">sdkfjklsdfjldksf
 - sdlkfjlksdjfldksjflksjfdss
 - slkdjflksjflksjflksjkljfksldjfldks
 sldkjflskdjfdlskjflksdjflkdsjflkjslkfjslkjfdlskjflsjklfdjslkjlskjdflks
 klsdjfkljsdlkfjskldf
 sdklfjklsdjfklsdjflksdjfklsdjkl
-lñklllllllllllllllllllllllqweqweqweqew</t>
+Lñklllllllllllllllllllllllqweqweqweqew
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Fgedfgdfgdffg
+Dfsfdf
+</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Difícil</t>
@@ -140,7 +163,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -165,6 +188,14 @@
     </font>
     <font>
       <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u val="single"/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -271,18 +302,18 @@
   <dimension ref="A1:H65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D:D"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="21.0612244897959"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="54.1326530612245"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="4" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="4" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="4" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="5" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="20.6530612244898"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="53.4591836734694"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="4" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="4" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="4" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="5" width="10.530612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -428,85 +459,17 @@
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <dataValidations count="20">
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="D2" type="list">
-      <formula1>"Mínimo,Importante,Opcional"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="D3" type="list">
-      <formula1>"Mínimo,Importante,Opcional"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="D4" type="list">
-      <formula1>"Mínimo,Importante,Opcional"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="D5" type="list">
-      <formula1>"Mínimo,Importante,Opcional"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="D6" type="list">
-      <formula1>"Mínimo,Importante,Opcional"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="E2" type="list">
-      <formula1>"Técnico,Funcional,Información"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="E3" type="list">
-      <formula1>"Técnico,Funcional,Información"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="E4" type="list">
-      <formula1>"Técnico,Funcional,Información"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="E5" type="list">
-      <formula1>"Técnico,Funcional,Información"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="E6" type="list">
-      <formula1>"Técnico,Funcional,Información"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="F2" type="list">
-      <formula1>"Fácil,Media,Difícil"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="F3" type="list">
-      <formula1>"Fácil,Media,Difícil"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="F4" type="list">
-      <formula1>"Fácil,Media,Difícil"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="F5" type="list">
-      <formula1>"Fácil,Media,Difícil"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="F6" type="list">
-      <formula1>"Fácil,Media,Difícil"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="G2" type="list">
+  <dataValidations count="3">
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2:G6" type="list">
       <formula1>"v1,v2,v3"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="G3" type="list">
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F2:F6" type="list">
       <formula1>"v1,v2,v3"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="G4" type="list">
-      <formula1>"v1,v2,v3"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="G5" type="list">
-      <formula1>"v1,v2,v3"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="G6" type="list">
-      <formula1>"v1,v2,v3"</formula1>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D1:E6" type="none">
+      <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>

--- a/requisitos.xlsx
+++ b/requisitos.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="165">
   <si>
     <t xml:space="preserve">Código</t>
   </si>
@@ -49,10 +49,10 @@
     <t xml:space="preserve">R01</t>
   </si>
   <si>
-    <t xml:space="preserve">sdfsdfsdfsdfs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skdjfksjf skjf hskjfh kjsdh fkjs hkjh fdjksh fkjsdh fkjs dfkjs dfkj sjkd fsjk fkjs fkjs fkjs fjks fjks hfkjs fjks hfjks hfjks hfjks hfjk sfjks fjks hfjks hjkf hsjkfs jk</t>
+    <t xml:space="preserve">Validación de formularios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validar datos introducidos por el usuario a través de formularios</t>
   </si>
   <si>
     <t xml:space="preserve">Mínimo</t>
@@ -64,96 +64,457 @@
     <t xml:space="preserve">Fácil</t>
   </si>
   <si>
+    <t xml:space="preserve">v2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gestión de ventanas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gestión de apariencia de ventanas, creación de nuevas ventanas y comunicación entre ellas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Media</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mecanismos de manejo de eventos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uso y manipulación del DOM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Almacenamiento en el lado del cliente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Difícil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uso de jQUERY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Incluir un plugin </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uso de AJAX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHP 7.1</t>
+  </si>
+  <si>
     <t xml:space="preserve">v1</t>
   </si>
   <si>
-    <t xml:space="preserve">R02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kdldjflgdfg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sdlksdljkfsldjfsd</t>
+    <t xml:space="preserve">R10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Usar Yii2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PostgreSQL 9.6 o superior</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desplegar en Heroku</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pruebas con Codeception</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validación con CodeClimate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estilo y mantenibilidad del código </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aplicación escalable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uso de HTML5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSS3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diseño flexible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transiciones, Transformaciones , Animaciones y multimedia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uso de Microdatos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validación de HTML5 y CSS3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implementación para diferentes resoluciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prueba en diferentes navegadores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Realizar despliegue en host</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Realizar despliegue en servidor local</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crear Usuario</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Se permitirá a los usuarios registrarse en la página para poder usarla</t>
   </si>
   <si>
     <t xml:space="preserve">Importante</t>
   </si>
   <si>
-    <t xml:space="preserve">v2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sdfsfd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lkcvlkjxcjklcxljkwejlksdfvc</t>
+    <t xml:space="preserve">Funcional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Borrar  usuario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El usuario administrador, podrá borrar a los usuarios ya registrados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Login y Logout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Un usuario registrado podrá hacer login para usar la aplicación y logout cuando no la quiera usar más.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ver datos de usuario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los usuarios registrados podrán ver sus datos, y el usuario administrador podrá ver el de todos los demás</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modificar datos de usuario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Un usuario registrado y logueado previamente, podrá modificar sus datos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crear eventos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Un usuario registrado y logueado podrá crear eventos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modificar eventos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los usuarios logueados podrán modificar los eventos que ha creado él mismo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Borrar eventos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Un usuario logueado podrá borrar los eventos que haya creado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ver datos de evento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los usuarios logueados podrán ver los datos de los eventos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inscripción en evento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La aplicación debe permitir a los usuarios logueados inscribirse en los eventos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ver usuarios inscritos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La aplicación debe mostrar al usuario administrador, los usuarios inscritos en dicho evento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opcional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comprobar inscripción</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los usuarios logueados pueden comprobar si están inscritos o no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calendario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mostrar a los usuarios logueados un calendario en el que aparezcan los eventos a los que está inscritos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hacer Comentarios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Permitir a los usuarios logueados hacer comentarios sobre el evento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eliminar propio comentario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Un usuario podrá eliminar su propio comentario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eliminar comentarios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El usuario administrador podrá borrar comentarios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Añadir imágenes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se podrán añadir imágenes a los eventos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notificaciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La aplicación mandará un correo a los usuarios inscritos en un evento, cuando se acerque el día de dicho evento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comprobación de correos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cada usuario deberá tener un correo único y que no lo use ningún otro usuario.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Registro de eventos en los que ha participado el usuario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La aplicación mostrará los eventos a los que el usuario se ha registrado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R46 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correo de confirmación de borrado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los usuarios que hayan borrado su cuenta, recibirán un correo para confirmar este borrado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aparición de eventos por fecha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los eventos creados aparecerán ordenados por fecha, apareciendo primero los que se celebrarán antes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agrupar eventos por realizados o por realizar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los eventos aparecerán agrupados por no realizados o por realizados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resultados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El creador del evento tiene la opción de subir los resultados del evento una vez acabado este.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prohibir inscripciones a un usuario ya inscrito</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Un usuario ya inscrito en un evento, no podrá volver a inscribirse en ese evento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prohibir inscripciones en un evento ya realizado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los eventos ya realizados no aceptarán más inscripciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Usuarios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los usuarios que usaran la aplicación. Se almacenarán: nombre,apellidos, fecha de nacimiento, Dni, domicilio, y correo eléctronico</t>
   </si>
   <si>
     <t xml:space="preserve">Información</t>
   </si>
   <si>
-    <t xml:space="preserve">v3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sfsfsfd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jk34jlk4n,lkjlksdflksdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Opcional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Funcional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Media</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xcvxcv</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">sdkfjklsdfjldksf
-- sdlkfjlksdjfldksjflksjfdss
-- slkdjflksjflksjflksjkljfksldjfldks
-sldkjflskdjfdlskjflksdjflkdsjflkjslkfjslkjfdlskjflsjklfdjslkjlskjdflks
-klsdjfkljsdlkfjskldf
-sdklfjklsdjfklsdjflksdjfklsdjkl
-Lñklllllllllllllllllllllllqweqweqweqew
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Fgedfgdfgdffg
-Dfsfdf
-</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Difícil</t>
+    <t xml:space="preserve">R53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eventos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Son los eventos deportivos que aparecerán en la aplicaciión. Se almacenará: Nombre, Deporte, Lugar, Organizador, participantes, resultados y realizado (sí o no)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Participantes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Son los usuarios que se han inscritos en un evento. Se almacenará: el id del usuario y el id del evento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comentarios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los comentarios realizados por el usuario. Almacenará:  el id del usuario que lo realiza y el id del evento donde se realizó el comentario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contiene la información de los usuarios y el puesto en el que acabaron. Contendrá : Puesto, id usuario, id evento</t>
   </si>
 </sst>
 </file>
@@ -163,7 +524,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -188,14 +549,6 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <u val="single"/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -245,7 +598,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -282,6 +635,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -299,21 +656,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H65536"/>
+  <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D:D"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C55" activeCellId="0" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="20.6530612244898"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="53.4591836734694"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="4" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="4" width="11.6071428571429"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="4" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="5" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="20.1122448979592"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="52.1071428571429"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="4" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="4" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="4" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="5" width="10.2602040816327"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -342,14 +699,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="34.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="8" t="s">
@@ -365,7 +722,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -376,100 +733,1221 @@
         <v>17</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G3" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="31.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="0"/>
+      <c r="D4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="26.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="8" t="s">
+      <c r="C5" s="0"/>
+      <c r="D5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="41.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="8" t="s">
+      <c r="B6" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="C6" s="0"/>
+      <c r="D6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="G6" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="3" t="s">
+    </row>
+    <row r="7" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="B7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="C7" s="0"/>
+      <c r="D7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="B8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="79.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="C8" s="0"/>
+      <c r="D8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="18.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C9" s="0"/>
+      <c r="D9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="8" t="s">
+      <c r="B10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="C10" s="0"/>
+      <c r="D10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="18.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="0"/>
+      <c r="D11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="33.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="0"/>
+      <c r="D12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="31.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="0"/>
+      <c r="D13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="0"/>
+      <c r="D14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="31.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="20.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="19.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="18.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="33.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="25.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="28.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="34.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2:G6" type="list">
-      <formula1>"v1,v2,v3"</formula1>
+  <dataValidations count="4">
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D2:D6" type="list">
+      <formula1>"Mínimo,Importante,Opcional"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E2:E6" type="list">
+      <formula1>"Técnico,Funcional,Información"</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F2:F6" type="list">
-      <formula1>"v1,v2,v3"</formula1>
+      <formula1>"Fácil,Media,Difícil"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D1:E6" type="none">
-      <formula1>0</formula1>
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2:G6" type="list">
+      <formula1>"v1,v2,v3"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>

--- a/requisitos.xlsx
+++ b/requisitos.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="174">
   <si>
     <t xml:space="preserve">Código</t>
   </si>
@@ -268,7 +268,7 @@
     <t xml:space="preserve">Ver datos de usuario</t>
   </si>
   <si>
-    <t xml:space="preserve">Los usuarios registrados podrán ver sus datos, y el usuario administrador podrá ver el de todos los demás</t>
+    <t xml:space="preserve">Los usuarios registrados podrán ver sus datos.</t>
   </si>
   <si>
     <t xml:space="preserve">R30</t>
@@ -304,7 +304,7 @@
     <t xml:space="preserve">Borrar eventos</t>
   </si>
   <si>
-    <t xml:space="preserve">Un usuario logueado podrá borrar los eventos que haya creado</t>
+    <t xml:space="preserve">Un usuario logueado podrá borrar los eventos que haya creado.</t>
   </si>
   <si>
     <t xml:space="preserve">R34</t>
@@ -313,7 +313,7 @@
     <t xml:space="preserve">Ver datos de evento</t>
   </si>
   <si>
-    <t xml:space="preserve">Los usuarios logueados podrán ver los datos de los eventos</t>
+    <t xml:space="preserve">Los usuarios logueados podrán ver los datos de los eventos.</t>
   </si>
   <si>
     <t xml:space="preserve">R35</t>
@@ -322,7 +322,7 @@
     <t xml:space="preserve">Inscripción en evento</t>
   </si>
   <si>
-    <t xml:space="preserve">La aplicación debe permitir a los usuarios logueados inscribirse en los eventos </t>
+    <t xml:space="preserve">La aplicación debe permitir a los usuarios logueados inscribirse en los eventos.</t>
   </si>
   <si>
     <t xml:space="preserve">R36</t>
@@ -331,7 +331,7 @@
     <t xml:space="preserve">Ver usuarios inscritos</t>
   </si>
   <si>
-    <t xml:space="preserve">La aplicación debe mostrar al usuario administrador, los usuarios inscritos en dicho evento</t>
+    <t xml:space="preserve">La aplicación mostrará una lista con los usuarios inscritos en un determinado evento.</t>
   </si>
   <si>
     <t xml:space="preserve">Opcional</t>
@@ -343,7 +343,7 @@
     <t xml:space="preserve">Comprobar inscripción</t>
   </si>
   <si>
-    <t xml:space="preserve">Los usuarios logueados pueden comprobar si están inscritos o no</t>
+    <t xml:space="preserve">Los usuarios logueados pueden comprobar si están inscritos o no.</t>
   </si>
   <si>
     <t xml:space="preserve">R38</t>
@@ -352,7 +352,7 @@
     <t xml:space="preserve">Calendario</t>
   </si>
   <si>
-    <t xml:space="preserve">Mostrar a los usuarios logueados un calendario en el que aparezcan los eventos a los que está inscritos</t>
+    <t xml:space="preserve">Mostrar a los usuarios logueados un calendario en el que aparezcan los eventos a los que está inscritos.</t>
   </si>
   <si>
     <t xml:space="preserve">R39</t>
@@ -361,7 +361,7 @@
     <t xml:space="preserve">Hacer Comentarios</t>
   </si>
   <si>
-    <t xml:space="preserve">Permitir a los usuarios logueados hacer comentarios sobre el evento</t>
+    <t xml:space="preserve">Permitir a los usuarios logueados hacer comentarios sobre el evento.</t>
   </si>
   <si>
     <t xml:space="preserve">R40</t>
@@ -370,7 +370,7 @@
     <t xml:space="preserve">Eliminar propio comentario</t>
   </si>
   <si>
-    <t xml:space="preserve">Un usuario podrá eliminar su propio comentario</t>
+    <t xml:space="preserve">Un usuario podrá eliminar su propio comentario.</t>
   </si>
   <si>
     <t xml:space="preserve">R41</t>
@@ -379,7 +379,7 @@
     <t xml:space="preserve">Eliminar comentarios</t>
   </si>
   <si>
-    <t xml:space="preserve">El usuario administrador podrá borrar comentarios</t>
+    <t xml:space="preserve">El usuario que ha creado el evento podrá borrar comentarios sobre su propio evento creado.</t>
   </si>
   <si>
     <t xml:space="preserve">R42</t>
@@ -388,7 +388,7 @@
     <t xml:space="preserve">Añadir imágenes</t>
   </si>
   <si>
-    <t xml:space="preserve">Se podrán añadir imágenes a los eventos</t>
+    <t xml:space="preserve">Se podrán añadir imágenes a los eventos.</t>
   </si>
   <si>
     <t xml:space="preserve">R43</t>
@@ -397,7 +397,7 @@
     <t xml:space="preserve">Notificaciones</t>
   </si>
   <si>
-    <t xml:space="preserve">La aplicación mandará un correo a los usuarios inscritos en un evento, cuando se acerque el día de dicho evento</t>
+    <t xml:space="preserve">La aplicación mandará un correo a los usuarios inscritos en un evento, cuando se acerque el día de dicho evento.</t>
   </si>
   <si>
     <t xml:space="preserve">R44</t>
@@ -415,7 +415,7 @@
     <t xml:space="preserve">Registro de eventos en los que ha participado el usuario</t>
   </si>
   <si>
-    <t xml:space="preserve">La aplicación mostrará los eventos a los que el usuario se ha registrado</t>
+    <t xml:space="preserve">La aplicación mostrará los eventos a los que el usuario se ha inscrito.</t>
   </si>
   <si>
     <t xml:space="preserve">R46 </t>
@@ -424,7 +424,7 @@
     <t xml:space="preserve">Correo de confirmación de borrado</t>
   </si>
   <si>
-    <t xml:space="preserve">Los usuarios que hayan borrado su cuenta, recibirán un correo para confirmar este borrado</t>
+    <t xml:space="preserve">Los usuarios que hayan borrado su cuenta, recibirán un correo para confirmar este borrado.</t>
   </si>
   <si>
     <t xml:space="preserve">R47</t>
@@ -460,7 +460,7 @@
     <t xml:space="preserve">Prohibir inscripciones a un usuario ya inscrito</t>
   </si>
   <si>
-    <t xml:space="preserve">Un usuario ya inscrito en un evento, no podrá volver a inscribirse en ese evento</t>
+    <t xml:space="preserve">Un usuario ya inscrito en un evento, no podrá volver a inscribirse en ese evento,</t>
   </si>
   <si>
     <t xml:space="preserve">R51</t>
@@ -469,7 +469,7 @@
     <t xml:space="preserve">Prohibir inscripciones en un evento ya realizado</t>
   </si>
   <si>
-    <t xml:space="preserve">Los eventos ya realizados no aceptarán más inscripciones</t>
+    <t xml:space="preserve">Los eventos ya realizados no aceptarán más inscripciones.</t>
   </si>
   <si>
     <t xml:space="preserve">R52</t>
@@ -478,7 +478,7 @@
     <t xml:space="preserve">Usuarios</t>
   </si>
   <si>
-    <t xml:space="preserve">Los usuarios que usaran la aplicación. Se almacenarán: nombre,apellidos, fecha de nacimiento, Dni, domicilio, y correo eléctronico</t>
+    <t xml:space="preserve">Los usuarios que usaran la aplicación. Se almacenarán: nombre de usuario, nombre,apellidos, fecha de nacimiento, Dni, y correo eléctronico.</t>
   </si>
   <si>
     <t xml:space="preserve">Información</t>
@@ -490,7 +490,7 @@
     <t xml:space="preserve">Eventos</t>
   </si>
   <si>
-    <t xml:space="preserve">Son los eventos deportivos que aparecerán en la aplicaciión. Se almacenará: Nombre, Deporte, Lugar, Organizador, participantes, resultados y realizado (sí o no)</t>
+    <t xml:space="preserve">Son los eventos deportivos que aparecerán en la aplicaciión. Se almacenará: Nombre, Deporte, Lugar, Organizador, participantes, resultados y realizado (sí o no).</t>
   </si>
   <si>
     <t xml:space="preserve">R54</t>
@@ -499,7 +499,7 @@
     <t xml:space="preserve">Participantes</t>
   </si>
   <si>
-    <t xml:space="preserve">Son los usuarios que se han inscritos en un evento. Se almacenará: el id del usuario y el id del evento</t>
+    <t xml:space="preserve">Son los usuarios que se han inscritos en un evento. Se almacenará: el id del usuario, el id del evento y si ha pagado o no.</t>
   </si>
   <si>
     <t xml:space="preserve">R55</t>
@@ -514,7 +514,34 @@
     <t xml:space="preserve">R56</t>
   </si>
   <si>
-    <t xml:space="preserve">Contiene la información de los usuarios y el puesto en el que acabaron. Contendrá : Puesto, id usuario, id evento</t>
+    <t xml:space="preserve">Contiene la información de los usuarios y el puesto en el que acabaron. Contendrá : Puesto, id usuario, id evento, club.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opción de realizar pago </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se dará la opción al usuario de pagar mediante Paypal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mostrar numero de inscripciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Al ver la información del evento, se mostrará el número de inscripciones.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mostrar pdf con los resultados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se mostrarán los resultados en un PDF</t>
   </si>
 </sst>
 </file>
@@ -656,21 +683,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H57"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C55" activeCellId="0" sqref="C55"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G61" activeCellId="0" sqref="G61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="20.1122448979592"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="52.1071428571429"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="4" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="4" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="4" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="5" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="19.8418367346939"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="51.5663265306123"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="4" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="4" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="4" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="5" width="10.1224489795918"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1006,6 +1033,7 @@
       <c r="B16" s="2" t="s">
         <v>48</v>
       </c>
+      <c r="C16" s="0"/>
       <c r="D16" s="4" t="s">
         <v>11</v>
       </c>
@@ -1026,6 +1054,7 @@
       <c r="B17" s="2" t="s">
         <v>50</v>
       </c>
+      <c r="C17" s="0"/>
       <c r="D17" s="4" t="s">
         <v>11</v>
       </c>
@@ -1046,6 +1075,7 @@
       <c r="B18" s="2" t="s">
         <v>52</v>
       </c>
+      <c r="C18" s="0"/>
       <c r="D18" s="4" t="s">
         <v>11</v>
       </c>
@@ -1066,6 +1096,7 @@
       <c r="B19" s="2" t="s">
         <v>54</v>
       </c>
+      <c r="C19" s="0"/>
       <c r="D19" s="4" t="s">
         <v>11</v>
       </c>
@@ -1086,6 +1117,7 @@
       <c r="B20" s="2" t="s">
         <v>56</v>
       </c>
+      <c r="C20" s="0"/>
       <c r="D20" s="4" t="s">
         <v>11</v>
       </c>
@@ -1106,6 +1138,7 @@
       <c r="B21" s="2" t="s">
         <v>58</v>
       </c>
+      <c r="C21" s="0"/>
       <c r="D21" s="4" t="s">
         <v>11</v>
       </c>
@@ -1126,6 +1159,7 @@
       <c r="B22" s="2" t="s">
         <v>60</v>
       </c>
+      <c r="C22" s="0"/>
       <c r="D22" s="4" t="s">
         <v>11</v>
       </c>
@@ -1146,6 +1180,7 @@
       <c r="B23" s="2" t="s">
         <v>62</v>
       </c>
+      <c r="C23" s="0"/>
       <c r="D23" s="4" t="s">
         <v>11</v>
       </c>
@@ -1166,6 +1201,7 @@
       <c r="B24" s="2" t="s">
         <v>64</v>
       </c>
+      <c r="C24" s="0"/>
       <c r="D24" s="4" t="s">
         <v>11</v>
       </c>
@@ -1186,6 +1222,7 @@
       <c r="B25" s="2" t="s">
         <v>66</v>
       </c>
+      <c r="C25" s="0"/>
       <c r="D25" s="4" t="s">
         <v>11</v>
       </c>
@@ -1206,6 +1243,7 @@
       <c r="B26" s="2" t="s">
         <v>68</v>
       </c>
+      <c r="C26" s="0"/>
       <c r="D26" s="4" t="s">
         <v>11</v>
       </c>
@@ -1288,7 +1326,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>80</v>
       </c>
@@ -1863,7 +1901,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
         <v>157</v>
       </c>
@@ -1930,6 +1968,75 @@
       </c>
       <c r="G57" s="4" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/requisitos.xlsx
+++ b/requisitos.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="306">
   <si>
     <t xml:space="preserve">Código</t>
   </si>
@@ -490,7 +490,7 @@
     <t xml:space="preserve">Eventos</t>
   </si>
   <si>
-    <t xml:space="preserve">Son los eventos deportivos que aparecerán en la aplicaciión. Se almacenará: Nombre, Deporte, Lugar, Organizador, participantes, resultados y realizado (sí o no).</t>
+    <t xml:space="preserve">Son los eventos deportivos que aparecerán en la aplicaciión. Se almacenará: Nombre, Deporte, Lugar, Organizador, participantes, pagina oficial, resultados y realizado (sí o no).</t>
   </si>
   <si>
     <t xml:space="preserve">R54</t>
@@ -542,6 +542,402 @@
   </si>
   <si>
     <t xml:space="preserve">Se mostrarán los resultados en un PDF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recuperar contraseña</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Un usuario puede cambiar su contraseña si no la recuerda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buscar eventos por nombre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se podrá buscar eventos por su nombre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buscar eventos por tipo de deporte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se buscará eventos por el tipo de deporte que se indique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La web mostrará un chat general para todos los usuarios logueados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salas de chat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cada evento dispondrá de una sala de chat.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valorar evento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se podrá valorar el evento con un sistema de votación que irá del 1 al 5.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ranking de usuarios creadores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ranking donde se mostrará los usuarios con más eventos creados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ranking de usuarios con más comentarios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ranking donde se mostrará los usuarios con más comentarios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ranking de usuarios con más votos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ranking donde se mostrará los usuarios con más votos a los eventos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recibir notificaciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si el usuario lo desea, se mandará un correo cada vez que haya un nuevo evento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seguir deporte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se podrá seguir un deporte y recibir notificaciones de los eventos de ese deporte.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deporte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se almacenará el nombre del deporte, descripción, si se juegan por equipos o de forma individual.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filtrar eventos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se filtrarán eventos por si se practican de forma individual o por equipos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buscar por fechas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buscador para buscar eventos que se realizan desde una fecha hasta otra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mostrar eventos del mes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En la página principal se mostrarán los eventos del mes actual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puntuación media</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cada evento muestra su puntuación media en base a las valoraciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Página oficial del evento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cada evento, si dispone de ella, mostrará un enlace a su página</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mostrar participantes del torneo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuando se ve los detalles de un evento, se mostrarán los participantes de este, de forma paginada.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seguir usuario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Un usuario podrá seguir a otro y ver todo los eventos que realiza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perfil de usuario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se mostrará una página de perfil de cada usuario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eventos realizados por usuario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En el perfil del usuario se podrá ver cada evento en el que se ha inscrito el usuario.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eventos creados por el usuario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En el perfil del usuario se podrá ver cada evento que ha creado el usuario.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Votar comentarios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se podrán votar los comentarios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comentar perfil de usuario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Otros usuarios podrán comentar el perfil de otro usuario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compartir por redes sociales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se podrán compartir un evento por redes sociales.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subir cartel del evento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Al crear  un evento se podrá subir un cartel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formulario de contacto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La aplicación incluirá un formulario de contacto, que podrá usarse por los usuarios para realizar consultas, sugerencias o lo que deseen al administrador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encuestas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En el evento se podrá añadir, si el creador lo desea, encuestas para conocer la opinión de los usuarios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Promociones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para incentivar el pago a través de la aplicación, se mostrarán los eventos que dispongan de descuentos al pagar a través de la aplicación.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preguntas frecuentes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Página donde se mostrarán las preguntas frecuentes, acerca del uso de la aplicación, que pueden tener los usuarios.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buscar por lugar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se mostrarán los eventos del lugar o ciudad que se indiquen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Videos de Youtube</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En los detalles del evento, se podrán añadir videos de Youtube</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Denunciar comentario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se podrán denunciar comentarios si son irrespetuosos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eliminación de comentarios con denuncias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La aplicación tendrá la capacidad de eliminar comentarios que tengan un determinado número de denuncias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Artículos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Artículos informativos sobre eventos. Se almacenará, el contenido del artículo, id del usuario creador del artículo, id del evento al que se refiere.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crear artículos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los usuarios logueados pueden crear artículos sobre los eventos que existen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modificar artículo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El creador del artículo podrá modificarlo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eliminar artículo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El creador del artículo podrá eliminarlo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Denunciar artículo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los usuarios podrán denunciar un artículo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eliminación de artículos con denuncias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La aplicación tendrá la capacidad de eliminar artículos que tengan un determinado número de denuncias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validación de usuarios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los usuarios recibirán un email para validar su cuenta.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Restricción del uso para usuarios no validados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los usuarios no validados no podrán acceder a la aplicación.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eliminación de usuarios no validados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pasado un determinado tiempo, si el usuario no se ha validado, la aplicación borrará su cuenta.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mapas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En el evento se mostrará la ubicación de este mediante Google Maps</t>
   </si>
 </sst>
 </file>
@@ -683,21 +1079,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H60"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G61" activeCellId="0" sqref="G61"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A95" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A105" activeCellId="0" sqref="A105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="19.8418367346939"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="51.5663265306123"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="4" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="4" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="4" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="5" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="19.5714285714286"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="50.8928571428571"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="4" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="4" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="4" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="5" width="9.98979591836735"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1717,7 +2113,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="37.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
         <v>132</v>
       </c>
@@ -2036,6 +2432,1018 @@
         <v>25</v>
       </c>
       <c r="G60" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A93" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G94" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G96" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G97" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F98" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G98" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F99" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G99" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F100" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G100" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F101" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G101" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F102" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G102" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G103" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F104" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G104" s="4" t="s">
         <v>26</v>
       </c>
     </row>
